--- a/my-app/static/downloads-excel/Reporte_empleados_2023_11_28.xlsx
+++ b/my-app/static/downloads-excel/Reporte_empleados_2023_11_28.xlsx
@@ -467,17 +467,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Karla</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rubio</t>
+          <t>Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Femenino</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>carlos@gmail.com</t>
+          <t>karla@gmail.com</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -507,12 +507,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brayan</t>
+          <t>Alejandro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alberto</t>
+          <t>Torres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>brayan@gmail.com</t>
+          <t>alejandro@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fer</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hervert</t>
+          <t>Viera</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fer@gmail.com</t>
+          <t>brenda@gmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -587,12 +587,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Marco</t>
+          <t>Urian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palacios</t>
+          <t>Viera</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
